--- a/data/input/absenteeism_data_7.xlsx
+++ b/data/input/absenteeism_data_7.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4893</v>
+        <v>67121</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Carvalho</t>
+          <t>Bruno Martins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>4501.91</v>
+        <v>11583.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69247</v>
+        <v>18464</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Henrique Costela</t>
+          <t>Bárbara Moura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>10579.33</v>
+        <v>10236.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55756</v>
+        <v>85612</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joaquim da Luz</t>
+          <t>Gustavo Viana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>5858</v>
+        <v>5341.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27763</v>
+        <v>32708</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miguel Lima</t>
+          <t>André Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>10185.24</v>
+        <v>11480.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38343</v>
+        <v>13728</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amanda Barros</t>
+          <t>Davi Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,48 +613,48 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>2781.45</v>
+        <v>10556.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89062</v>
+        <v>9102</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eduardo Aragão</t>
+          <t>Joana da Mata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>7217.38</v>
+        <v>7242.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4740</v>
+        <v>52940</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lorena Barbosa</t>
+          <t>Beatriz Gonçalves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>12397.47</v>
+        <v>9763.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91801</v>
+        <v>43285</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabriel Mendes</t>
+          <t>Dr. Daniel Alves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>8984.17</v>
+        <v>2823.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>390</v>
+        <v>59511</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nina Pinto</t>
+          <t>Esther Azevedo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>4717.34</v>
+        <v>9750.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77145</v>
+        <v>65143</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. João Pedro Fogaça</t>
+          <t>Bernardo Fogaça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>4261.4</v>
+        <v>6520.38</v>
       </c>
     </row>
   </sheetData>
